--- a/Шаблон таблицы тест-кейсов Vk.com из М6_М9.xlsx
+++ b/Шаблон таблицы тест-кейсов Vk.com из М6_М9.xlsx
@@ -141,10 +141,6 @@
     <t>Вход не осуществлен, появилось сообщение красноватого цвета с заголовком "Не удаётся войти", предлагаются варианты действий, в поле ввода "Пароль" мигает курсор ввода, в поле ввода "Email или телефон" отображается телефон "+7917987654321", отсутствующий в БД</t>
   </si>
   <si>
-    <t>Yandex
-Дата: 14.08.2020</t>
-  </si>
-  <si>
     <t>Негативный вход с пустыми полями</t>
   </si>
   <si>
@@ -3118,6 +3114,10 @@
   </si>
   <si>
     <t>Поле "Поиск" (роль неавторизованного пользователя)</t>
+  </si>
+  <si>
+    <t>Chrome
+Дата: 28.09.2020</t>
   </si>
 </sst>
 </file>
@@ -3445,21 +3445,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3474,6 +3459,21 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3816,7 +3816,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3872,10 +3872,10 @@
   <dimension ref="A1:Z81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="17" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="17" t="s">
@@ -4091,43 +4091,43 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="12"/>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="39" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="37"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="36"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="36"/>
+      <c r="R6" s="43"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="36"/>
+      <c r="T6" s="43"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -4137,29 +4137,29 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="12"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="38"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="36"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="36"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="36"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="36"/>
+      <c r="R7" s="43"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="36"/>
+      <c r="T7" s="43"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -4173,13 +4173,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>24</v>
@@ -4202,7 +4202,7 @@
       <c r="T8" s="6"/>
       <c r="U8" s="11"/>
       <c r="V8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -4242,7 +4242,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="11"/>
       <c r="V9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -4259,7 +4259,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>24</v>
@@ -4282,7 +4282,7 @@
       <c r="T10" s="6"/>
       <c r="U10" s="11"/>
       <c r="V10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -4299,7 +4299,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>27</v>
@@ -4322,7 +4322,7 @@
       <c r="T11" s="28"/>
       <c r="U11" s="11"/>
       <c r="V11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -4339,7 +4339,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>28</v>
@@ -4362,7 +4362,7 @@
       <c r="T12" s="28"/>
       <c r="U12" s="11"/>
       <c r="V12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -4376,13 +4376,13 @@
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>44</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="18"/>
@@ -4402,7 +4402,7 @@
       <c r="T13" s="6"/>
       <c r="U13" s="11"/>
       <c r="V13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -4416,13 +4416,13 @@
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="18"/>
@@ -4442,7 +4442,7 @@
       <c r="T14" s="6"/>
       <c r="U14" s="11"/>
       <c r="V14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>29</v>
@@ -4482,7 +4482,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="11"/>
       <c r="V15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -4496,10 +4496,10 @@
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>31</v>
@@ -4522,7 +4522,7 @@
       <c r="T16" s="6"/>
       <c r="U16" s="11"/>
       <c r="V16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4536,10 +4536,10 @@
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="30" t="s">
         <v>31</v>
@@ -4562,7 +4562,7 @@
       <c r="T17" s="6"/>
       <c r="U17" s="11"/>
       <c r="V17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4576,10 +4576,10 @@
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>35</v>
@@ -4602,7 +4602,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="11"/>
       <c r="V18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4616,10 +4616,10 @@
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>36</v>
@@ -4642,7 +4642,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="11"/>
       <c r="V19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4655,16 +4655,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>82</v>
-      </c>
       <c r="E20" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="18"/>
@@ -4684,7 +4684,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="11"/>
       <c r="V20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4698,13 +4698,13 @@
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="18"/>
@@ -4724,7 +4724,7 @@
       <c r="T21" s="6"/>
       <c r="U21" s="11"/>
       <c r="V21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4738,13 +4738,13 @@
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="18"/>
@@ -4764,7 +4764,7 @@
       <c r="T22" s="6"/>
       <c r="U22" s="11"/>
       <c r="V22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -4778,13 +4778,13 @@
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="18"/>
@@ -4804,7 +4804,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="11"/>
       <c r="V23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -4818,13 +4818,13 @@
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="18"/>
@@ -4844,7 +4844,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="11"/>
       <c r="V24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -4858,13 +4858,13 @@
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="18"/>
@@ -4884,7 +4884,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="11"/>
       <c r="V25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -4898,13 +4898,13 @@
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="18"/>
@@ -4924,7 +4924,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="11"/>
       <c r="V26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -4938,13 +4938,13 @@
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="18"/>
@@ -4964,7 +4964,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="11"/>
       <c r="V27" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -4978,13 +4978,13 @@
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="18"/>
@@ -5004,7 +5004,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="11"/>
       <c r="V28" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -5018,13 +5018,13 @@
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="18"/>
@@ -5044,7 +5044,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="11"/>
       <c r="V29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -5058,13 +5058,13 @@
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="18"/>
@@ -5084,7 +5084,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="11"/>
       <c r="V30" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -5098,13 +5098,13 @@
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="18"/>
@@ -5124,7 +5124,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="11"/>
       <c r="V31" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
@@ -5138,13 +5138,13 @@
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="18"/>
@@ -5164,7 +5164,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="11"/>
       <c r="V32" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -5178,13 +5178,13 @@
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="18"/>
@@ -5204,7 +5204,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="11"/>
       <c r="V33" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -5218,13 +5218,13 @@
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="33" t="s">
         <v>53</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>54</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="18"/>
@@ -5244,7 +5244,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="11"/>
       <c r="V34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
@@ -5257,16 +5257,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="18"/>
@@ -5286,7 +5286,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="11"/>
       <c r="V35" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
@@ -5300,13 +5300,13 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="18"/>
@@ -5326,7 +5326,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="11"/>
       <c r="V36" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
@@ -5340,13 +5340,13 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="18"/>
@@ -5366,7 +5366,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="11"/>
       <c r="V37" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
@@ -5380,13 +5380,13 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E38" s="26" t="s">
-        <v>103</v>
-      </c>
       <c r="F38" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="18"/>
@@ -5406,7 +5406,7 @@
       <c r="T38" s="6"/>
       <c r="U38" s="11"/>
       <c r="V38" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
@@ -5420,13 +5420,13 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="26" t="s">
-        <v>106</v>
-      </c>
       <c r="F39" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="18"/>
@@ -5446,7 +5446,7 @@
       <c r="T39" s="6"/>
       <c r="U39" s="11"/>
       <c r="V39" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
@@ -5460,13 +5460,13 @@
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="F40" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="18"/>
@@ -5486,7 +5486,7 @@
       <c r="T40" s="6"/>
       <c r="U40" s="11"/>
       <c r="V40" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
@@ -5500,13 +5500,13 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="26" t="s">
-        <v>111</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="18"/>
@@ -5526,7 +5526,7 @@
       <c r="T41" s="6"/>
       <c r="U41" s="11"/>
       <c r="V41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
@@ -5539,16 +5539,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="F42" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="18"/>
@@ -5568,7 +5568,7 @@
       <c r="T42" s="6"/>
       <c r="U42" s="11"/>
       <c r="V42" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
@@ -5582,13 +5582,13 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E43" s="26" t="s">
-        <v>116</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="18"/>
@@ -5608,7 +5608,7 @@
       <c r="T43" s="6"/>
       <c r="U43" s="11"/>
       <c r="V43" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -5622,13 +5622,13 @@
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E44" s="26" t="s">
-        <v>118</v>
-      </c>
       <c r="F44" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="18"/>
@@ -5648,7 +5648,7 @@
       <c r="T44" s="6"/>
       <c r="U44" s="11"/>
       <c r="V44" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -5662,13 +5662,13 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E45" s="26" t="s">
-        <v>120</v>
-      </c>
       <c r="F45" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="18"/>
@@ -5688,7 +5688,7 @@
       <c r="T45" s="6"/>
       <c r="U45" s="11"/>
       <c r="V45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
@@ -5702,13 +5702,13 @@
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="26" t="s">
-        <v>122</v>
-      </c>
       <c r="F46" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="18"/>
@@ -5728,7 +5728,7 @@
       <c r="T46" s="6"/>
       <c r="U46" s="11"/>
       <c r="V46" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
@@ -5742,13 +5742,13 @@
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E47" s="26" t="s">
-        <v>124</v>
-      </c>
       <c r="F47" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="18"/>
@@ -5768,7 +5768,7 @@
       <c r="T47" s="6"/>
       <c r="U47" s="11"/>
       <c r="V47" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
@@ -5782,13 +5782,13 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="26" t="s">
-        <v>126</v>
-      </c>
       <c r="F48" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="18"/>
@@ -5808,7 +5808,7 @@
       <c r="T48" s="6"/>
       <c r="U48" s="11"/>
       <c r="V48" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
@@ -6694,12 +6694,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -6707,6 +6701,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T62 P8:P62 R8:R62 N8:N62 L8:L62">
